--- a/Task-1/Табличка энтропий.xlsx
+++ b/Task-1/Табличка энтропий.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unlovable\Desktop\RewersEngineering\Reverse_Engineering_TKI_341\Task-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E20E2F-F053-4394-9661-2E4DE20E6BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A05888-1807-42A5-8045-96D77AADA2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Функция</t>
   </si>
@@ -88,13 +97,142 @@
   </si>
   <si>
     <t>7.78522</t>
+  </si>
+  <si>
+    <t>Файл</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Размер(сжатие)</t>
+  </si>
+  <si>
+    <t>Энтропия(сжатие)</t>
+  </si>
+  <si>
+    <t>Изображение</t>
+  </si>
+  <si>
+    <t>jpeg</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>7.9604</t>
+  </si>
+  <si>
+    <t>7.9898</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>Таблица</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>xslb</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7.4137</t>
+  </si>
+  <si>
+    <t>4.1398</t>
+  </si>
+  <si>
+    <t>6.7160</t>
+  </si>
+  <si>
+    <t>6.4827</t>
+  </si>
+  <si>
+    <t>Аудио</t>
+  </si>
+  <si>
+    <t>mp3</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>2935</t>
+  </si>
+  <si>
+    <t>7193</t>
+  </si>
+  <si>
+    <t>7.9660</t>
+  </si>
+  <si>
+    <t>7.9768</t>
+  </si>
+  <si>
+    <t>2907</t>
+  </si>
+  <si>
+    <t>7065</t>
+  </si>
+  <si>
+    <t>7.9999</t>
+  </si>
+  <si>
+    <t>7.99999</t>
+  </si>
+  <si>
+    <t>4081</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>7.9854</t>
+  </si>
+  <si>
+    <t>7.7084</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7.9634</t>
+  </si>
+  <si>
+    <t>7.9626</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +240,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,12 +283,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,130 +586,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.46484375" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" customWidth="1"/>
-    <col min="6" max="6" width="35.3984375" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="30.9296875" customWidth="1"/>
+    <col min="1" max="1" width="12" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="6"/>
+    <col min="3" max="3" width="19.46484375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.53125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.3984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.9296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>7940</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>7814</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>7797</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>148</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>62</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>C1</f>
+        <v>Размер(без сжатия)</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" ref="D6:F6" si="0">D1</f>
+        <v>Энтропия(без сжатия)</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1621</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4093</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Task-1/Табличка энтропий.xlsx
+++ b/Task-1/Табличка энтропий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unlovable\Desktop\RewersEngineering\Reverse_Engineering_TKI_341\Task-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A05888-1807-42A5-8045-96D77AADA2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F3D77-720D-4576-96AC-68CED89FC5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Функция</t>
   </si>
@@ -72,33 +72,6 @@
     <t>Энтропия(высокая степень сжатия)</t>
   </si>
   <si>
-    <t>7.98997</t>
-  </si>
-  <si>
-    <t>7.99727</t>
-  </si>
-  <si>
-    <t>7.99728</t>
-  </si>
-  <si>
-    <t>4.15270</t>
-  </si>
-  <si>
-    <t>7.63256</t>
-  </si>
-  <si>
-    <t>7.61775</t>
-  </si>
-  <si>
-    <t>6.09645</t>
-  </si>
-  <si>
-    <t>7.80867</t>
-  </si>
-  <si>
-    <t>7.78522</t>
-  </si>
-  <si>
     <t>Файл</t>
   </si>
   <si>
@@ -120,12 +93,6 @@
     <t>png</t>
   </si>
   <si>
-    <t>7.9604</t>
-  </si>
-  <si>
-    <t>7.9898</t>
-  </si>
-  <si>
     <t>Текст</t>
   </si>
   <si>
@@ -156,18 +123,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>7.4137</t>
-  </si>
-  <si>
-    <t>4.1398</t>
-  </si>
-  <si>
-    <t>6.7160</t>
-  </si>
-  <si>
-    <t>6.4827</t>
-  </si>
-  <si>
     <t>Аудио</t>
   </si>
   <si>
@@ -183,49 +138,49 @@
     <t>7193</t>
   </si>
   <si>
-    <t>7.9660</t>
-  </si>
-  <si>
-    <t>7.9768</t>
-  </si>
-  <si>
     <t>2907</t>
   </si>
   <si>
     <t>7065</t>
   </si>
   <si>
-    <t>7.9999</t>
-  </si>
-  <si>
-    <t>7.99999</t>
-  </si>
-  <si>
     <t>4081</t>
   </si>
   <si>
     <t>1601</t>
   </si>
   <si>
-    <t>7.9854</t>
-  </si>
-  <si>
-    <t>7.7084</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>7.9634</t>
-  </si>
-  <si>
-    <t>7.9626</t>
-  </si>
-  <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>7,98997</t>
+  </si>
+  <si>
+    <t>7,99727</t>
+  </si>
+  <si>
+    <t>Энтропия(без/средняя)</t>
+  </si>
+  <si>
+    <t>Размер(без/средняя)</t>
+  </si>
+  <si>
+    <t>Энтропия(без/высокая)</t>
+  </si>
+  <si>
+    <t>Размер(без/высокая)</t>
+  </si>
+  <si>
+    <t>Отношение размера</t>
+  </si>
+  <si>
+    <t>Отношение энтропии</t>
   </si>
 </sst>
 </file>
@@ -283,12 +238,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -306,6 +258,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -586,312 +542,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="6"/>
-    <col min="3" max="3" width="19.46484375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.3984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.9296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="5"/>
+    <col min="3" max="3" width="19.46484375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.3984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.9296875" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.06640625" style="1"/>
+    <col min="10" max="10" width="23.46484375" customWidth="1"/>
+    <col min="11" max="11" width="18.265625" customWidth="1"/>
+    <col min="12" max="12" width="26.59765625" customWidth="1"/>
+    <col min="13" max="13" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>7940</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7814</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7797</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7.9972799999999999</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="8">
+        <f>D2/F2</f>
+        <v>0.99908718850307654</v>
+      </c>
+      <c r="K2" s="8">
+        <f>C2/E2</f>
+        <v>1.0161249040184284</v>
+      </c>
+      <c r="L2" s="8">
+        <f>D2/H2</f>
+        <v>0.99908593921933453</v>
+      </c>
+      <c r="M2" s="8">
+        <f>C2/G2</f>
+        <v>1.0183403873284598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>97</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.1527000000000003</v>
+      </c>
+      <c r="E3" s="5">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7.6325599999999998</v>
+      </c>
+      <c r="G3" s="5">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7.61775</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8">
+        <f t="shared" ref="J3:J5" si="0">D3/F3</f>
+        <v>0.54407695452115679</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K4" si="1">C3/E3</f>
+        <v>3.7307692307692308</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L4" si="2">D3/H3</f>
+        <v>0.54513471825670312</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M4" si="3">C3/G3</f>
+        <v>4.2173913043478262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>148</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.0964499999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>71</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7.8086700000000002</v>
+      </c>
+      <c r="G4" s="5">
+        <v>62</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7.7852199999999998</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.78072834426349169</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="1"/>
+        <v>2.084507042253521</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.7830799900323947</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="3"/>
+        <v>2.3870967741935485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6">
-        <v>7814</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6">
-        <v>7797</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <v>97</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>148</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6">
-        <v>71</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6">
-        <v>62</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="3" t="str">
         <f>C1</f>
         <v>Размер(без сжатия)</v>
       </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" ref="D6:F6" si="0">D1</f>
+      <c r="D6" s="3" t="str">
+        <f t="shared" ref="D6" si="4">D1</f>
         <v>Энтропия(без сжатия)</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1621</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7.9603999999999999</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7.9999900000000004</v>
+      </c>
+      <c r="G7" s="5">
+        <f>D7/F7</f>
+        <v>0.99505124381405474</v>
+      </c>
+      <c r="H7" s="5">
+        <f>C7/E7</f>
+        <v>1.0124921923797627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4093</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.9897999999999998</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" ref="G8:G14" si="5">D8/F8</f>
+        <v>0.99872499999999997</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ref="H8:H14" si="6">C8/E8</f>
+        <v>1.0029404557706445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7.4137000000000004</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7.7084000000000001</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="5"/>
+        <v>0.96176897929531424</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.1398000000000001</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7.9854000000000003</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="5"/>
+        <v>0.51842111854133799</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.7160000000000002</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7.9634</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="5"/>
+        <v>0.84335836451766832</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1621</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6">
-        <v>4093</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D12" s="5">
+        <v>6.4827000000000004</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7.9626000000000001</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="5"/>
+        <v>0.81414362143018615</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7.9660000000000002</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
+        <v>0.99575000000000002</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0181174805378628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="D14" s="5">
+        <v>7.9767999999999999</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>53</v>
+      <c r="F14" s="5">
+        <v>7.9999000000000002</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>0.99711246390579877</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0096319229446165</v>
       </c>
     </row>
   </sheetData>
